--- a/medicine/Enfance/Kathleen_Karr/Kathleen_Karr.xlsx
+++ b/medicine/Enfance/Kathleen_Karr/Kathleen_Karr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kathleen Karr née Csere  le 21 avril 1946 et morte le 6 décembre 2017 est une autrice américaine de littérature jeunesse à thèmes historiques, la plupart sur l'histoire contemporaine des États-Unis.
 </t>
@@ -511,9 +523,11 @@
           <t>Famille et études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kathleen Karr est née le 21 avril 1946 à Allentown, en Pennsylvanie et a grandi dans un élevage de poulets dans le canton de Weymouth, New Jersey[1]. En 1968 elle est diplômée de l'Université catholique d'Amérique à Washington puis en 1971 obtient une maîtrise (master's degree) de littérature anglaise du Providence College à Providence.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kathleen Karr est née le 21 avril 1946 à Allentown, en Pennsylvanie et a grandi dans un élevage de poulets dans le canton de Weymouth, New Jersey. En 1968 elle est diplômée de l'Université catholique d'Amérique à Washington puis en 1971 obtient une maîtrise (master's degree) de littérature anglaise du Providence College à Providence.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1971, Kathleen Karr entre au nouveau American Film Institute à Washington. Après un an, elle travaille pour la chaîne de cinémas Circle Theatre jusqu'à la naissance de sa fille. Elle écrit son premier roman, Light of My Heart, en 1984. Lorsque ses jeunes enfants lui demandent d'écrire une histoire pour eux, elle s'exéctute puis publie son premier livre pour enfants, It Ain't Always Easy (1990), et a commence ainsi une carrière à plein temps dans la littérature jeunesse.
-Dès 1992, l'École des Loisirs traduit en français certains ouvrages de Karr[2], en commençant par It Ain't Always Easy, sous le titre C'est la vie.
-Dans son roman The Great Turkey Walk (La longue marche des dindes), elle décrit la transhumance des volailles en 1860[3] où un millier de dindes sont menées depuis Union, dans le Missouri jusqu'à Denver, Colorado, par un jeune adolescent Simon et ses deux amis. 
+Dès 1992, l'École des Loisirs traduit en français certains ouvrages de Karr, en commençant par It Ain't Always Easy, sous le titre C'est la vie.
+Dans son roman The Great Turkey Walk (La longue marche des dindes), elle décrit la transhumance des volailles en 1860 où un millier de dindes sont menées depuis Union, dans le Missouri jusqu'à Denver, Colorado, par un jeune adolescent Simon et ses deux amis. 
 Elle écrit Gilbert and Sullivan Set Me Free sur une prison pour femmes, basé sur un événement historique survenu en 1914. Les détenues de la prison pour femmes de Sherborn, Massachusetts, préparent une représentation de l'opéra Les Pirates de Penzance . Dans son roman, l'aumônier de la prison utilise le pouvoir transformateur de la musique et du théâtre pour aider les détenues à s'amender et les rassembler dans une communauté unie.
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Kathleen Karr meurt le 6 décembre 2017 à Chicago, Illinois.
 </t>
@@ -607,7 +625,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sur les 25 ouvrages jeunesse de Kathleen Karr, six à ce jour ont été traduits en français, tous publiés par L'École des Loisirs depuis 1992.
 It Ain't Always Easy (1990) New York, hiver 1882. Jack et Mandy, deux jeunes enfants, doivent survivre par leurs propres moyens
@@ -670,7 +690,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2001, Kathleen Karr reçoit le Golden Kite Award (en) pour son roman jeunesse The Boxer.
 En 2003, elle reçoit le prix Agatha pour The 7th Knot.
@@ -702,9 +724,11 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son roman La longue marche des dindes est adapté en bande dessinée par la dessinatrice Léonie Bischoff en 2022, publiée aux éditions Rue de Sèvres[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son roman La longue marche des dindes est adapté en bande dessinée par la dessinatrice Léonie Bischoff en 2022, publiée aux éditions Rue de Sèvres.
 En janvier 2023, l'album obtient le Fauve Jeunesse au festival d'Angoulême.
 </t>
         </is>
